--- a/David/Naturalness model/Jason's final project/data analysis/res/separate_skin/resTable/Skin_table.xlsx
+++ b/David/Naturalness model/Jason's final project/data analysis/res/separate_skin/resTable/Skin_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="230" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="690" uniqueCount="52">
   <si>
     <t>source</t>
   </si>
@@ -356,22 +356,22 @@
         <v>11</v>
       </c>
       <c r="K2" s="0">
-        <v>63.912115890000003</v>
+        <v>62.856436536834302</v>
       </c>
       <c r="L2" s="0">
-        <v>15.492856916093546</v>
+        <v>16.876509382396449</v>
       </c>
       <c r="M2" s="0">
-        <v>8.2450413436080794</v>
+        <v>27.694243876331353</v>
       </c>
       <c r="N2" s="0">
-        <v>63.912115890000003</v>
+        <v>63.511800000000001</v>
       </c>
       <c r="O2" s="0">
-        <v>15.56144219665306</v>
+        <v>16.362100000000002</v>
       </c>
       <c r="P2" s="0">
-        <v>26.873668425510203</v>
+        <v>27.501899999999999</v>
       </c>
       <c r="Q2" s="0">
         <v>5000</v>
@@ -433,22 +433,22 @@
         <v>11</v>
       </c>
       <c r="K3" s="0">
-        <v>63.05272589285714</v>
+        <v>63.566372286009489</v>
       </c>
       <c r="L3" s="0">
-        <v>15.492856916093546</v>
+        <v>27.351315257458431</v>
       </c>
       <c r="M3" s="0">
-        <v>8.2450413436080794</v>
+        <v>20.093305585653205</v>
       </c>
       <c r="N3" s="0">
-        <v>63.05272589285714</v>
+        <v>63.569499999999998</v>
       </c>
       <c r="O3" s="0">
-        <v>27.8625237944898</v>
+        <v>27.968399999999999</v>
       </c>
       <c r="P3" s="0">
-        <v>19.235825174408163</v>
+        <v>19.052600000000002</v>
       </c>
       <c r="Q3" s="0">
         <v>5000</v>
@@ -510,22 +510,22 @@
         <v>11</v>
       </c>
       <c r="K4" s="0">
-        <v>52.32090100632653</v>
+        <v>54.092309063519558</v>
       </c>
       <c r="L4" s="0">
-        <v>15.492856916093546</v>
+        <v>13.5514054924581</v>
       </c>
       <c r="M4" s="0">
-        <v>8.2450413436080794</v>
+        <v>4.5311299391899453</v>
       </c>
       <c r="N4" s="0">
-        <v>52.32090100632653</v>
+        <v>52.266199999999998</v>
       </c>
       <c r="O4" s="0">
-        <v>13.535939843285716</v>
+        <v>13.5631</v>
       </c>
       <c r="P4" s="0">
-        <v>3.200334803693877</v>
+        <v>3.2364000000000002</v>
       </c>
       <c r="Q4" s="0">
         <v>5000</v>
@@ -587,22 +587,22 @@
         <v>11</v>
       </c>
       <c r="K5" s="0">
-        <v>55.341594394693878</v>
+        <v>56.135050598385426</v>
       </c>
       <c r="L5" s="0">
-        <v>15.492856916093546</v>
+        <v>14.502543532588541</v>
       </c>
       <c r="M5" s="0">
-        <v>8.2450413436080794</v>
+        <v>17.936436169322917</v>
       </c>
       <c r="N5" s="0">
-        <v>55.341594394693878</v>
+        <v>56.067300000000003</v>
       </c>
       <c r="O5" s="0">
-        <v>15.425372866163267</v>
+        <v>15.3942</v>
       </c>
       <c r="P5" s="0">
-        <v>18.445593986244898</v>
+        <v>18.571000000000002</v>
       </c>
       <c r="Q5" s="0">
         <v>5000</v>
@@ -664,22 +664,22 @@
         <v>11</v>
       </c>
       <c r="K6" s="0">
-        <v>65.933603689591834</v>
+        <v>65.444397729814327</v>
       </c>
       <c r="L6" s="0">
-        <v>15.492856916093546</v>
+        <v>14.911018335968169</v>
       </c>
       <c r="M6" s="0">
-        <v>8.2450413436080794</v>
+        <v>4.9521581247586228</v>
       </c>
       <c r="N6" s="0">
-        <v>65.933603689591834</v>
+        <v>65.890699999999995</v>
       </c>
       <c r="O6" s="0">
-        <v>13.656030763346939</v>
+        <v>13.7026</v>
       </c>
       <c r="P6" s="0">
-        <v>4.0951037812653057</v>
+        <v>4.0728</v>
       </c>
       <c r="Q6" s="0">
         <v>5000</v>
@@ -741,22 +741,22 @@
         <v>11</v>
       </c>
       <c r="K7" s="0">
-        <v>58.89122586306123</v>
+        <v>58.79307776528001</v>
       </c>
       <c r="L7" s="0">
-        <v>21.43</v>
+        <v>12.181287405360001</v>
       </c>
       <c r="M7" s="0">
-        <v>23.75</v>
+        <v>12.137002440640003</v>
       </c>
       <c r="N7" s="0">
-        <v>58.89122586306123</v>
+        <v>58.123699999999999</v>
       </c>
       <c r="O7" s="0">
-        <v>11.90126337634694</v>
+        <v>12.060700000000001</v>
       </c>
       <c r="P7" s="0">
-        <v>10.876789533795922</v>
+        <v>10.9863</v>
       </c>
       <c r="Q7" s="0">
         <v>5000</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="K8" s="0">
-        <v>67.488671491020412</v>
+        <v>69.034535303400006</v>
       </c>
       <c r="L8" s="0">
-        <v>21.43</v>
+        <v>20.134257390699997</v>
       </c>
       <c r="M8" s="0">
-        <v>23.75</v>
+        <v>15.416820240499998</v>
       </c>
       <c r="N8" s="0">
-        <v>67.488671491020412</v>
+        <v>67.635499999999993</v>
       </c>
       <c r="O8" s="0">
-        <v>19.627911206755101</v>
+        <v>20.026199999999999</v>
       </c>
       <c r="P8" s="0">
-        <v>14.859413762612244</v>
+        <v>15.106199999999999</v>
       </c>
       <c r="Q8" s="0">
         <v>5000</v>
@@ -895,22 +895,22 @@
         <v>11</v>
       </c>
       <c r="K9" s="0">
-        <v>70.231228537551019</v>
+        <v>69.290923829812726</v>
       </c>
       <c r="L9" s="0">
-        <v>21.43</v>
+        <v>23.422205947041196</v>
       </c>
       <c r="M9" s="0">
-        <v>23.75</v>
+        <v>27.771400969101123</v>
       </c>
       <c r="N9" s="0">
-        <v>70.231228537551019</v>
+        <v>70.827399999999997</v>
       </c>
       <c r="O9" s="0">
-        <v>23.003772149163265</v>
+        <v>23.972100000000001</v>
       </c>
       <c r="P9" s="0">
-        <v>27.591233302040816</v>
+        <v>27.5901</v>
       </c>
       <c r="Q9" s="0">
         <v>5000</v>
@@ -972,22 +972,22 @@
         <v>11</v>
       </c>
       <c r="K10" s="0">
-        <v>55.583268935102048</v>
+        <v>54.939873531742428</v>
       </c>
       <c r="L10" s="0">
-        <v>21.43</v>
+        <v>23.94829839458334</v>
       </c>
       <c r="M10" s="0">
-        <v>23.75</v>
+        <v>18.533323708674246</v>
       </c>
       <c r="N10" s="0">
-        <v>55.583268935102048</v>
+        <v>56.361600000000003</v>
       </c>
       <c r="O10" s="0">
-        <v>24.175041768163265</v>
+        <v>24.505400000000002</v>
       </c>
       <c r="P10" s="0">
-        <v>17.589505825918366</v>
+        <v>17.868099999999998</v>
       </c>
       <c r="Q10" s="0">
         <v>5000</v>
@@ -1049,22 +1049,22 @@
         <v>11</v>
       </c>
       <c r="K11" s="0">
-        <v>55.182506393469389</v>
+        <v>56.856167377157895</v>
       </c>
       <c r="L11" s="0">
-        <v>21.43</v>
+        <v>13.298753802912278</v>
       </c>
       <c r="M11" s="0">
-        <v>23.75</v>
+        <v>11.014717004498246</v>
       </c>
       <c r="N11" s="0">
-        <v>55.182506393469389</v>
+        <v>55.453800000000001</v>
       </c>
       <c r="O11" s="0">
-        <v>12.842282830469388</v>
+        <v>13.045299999999999</v>
       </c>
       <c r="P11" s="0">
-        <v>8.7681160970816325</v>
+        <v>8.8497000000000003</v>
       </c>
       <c r="Q11" s="0">
         <v>5000</v>
